--- a/Data/EC/NIT-9005116609.xlsx
+++ b/Data/EC/NIT-9005116609.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8F74A4-6BC7-4F17-A27F-328E7B2875F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6605A9BD-107E-4103-9303-E51792D2E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A82C632D-80C4-475D-9227-96E9131C9153}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72C01FDC-05AB-4DA7-9EBA-2C1A11F503BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="138">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,189 @@
     <t>CC</t>
   </si>
   <si>
+    <t>10131340</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS JIMENEZ GIRALDO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1102118911</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES RICARDO LOPEZ</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>80817435</t>
   </si>
   <si>
@@ -74,352 +257,166 @@
     <t>2104</t>
   </si>
   <si>
-    <t>10131340</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS JIMENEZ GIRALDO</t>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1143394077</t>
+  </si>
+  <si>
+    <t>FRANK JOHNN SLIGER MARTINEZ</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047391765</t>
-  </si>
-  <si>
-    <t>JOHN LUIS CHAMORRO SALGADO</t>
-  </si>
-  <si>
-    <t>1102118911</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES RICARDO LOPEZ</t>
-  </si>
-  <si>
-    <t>1143394077</t>
-  </si>
-  <si>
-    <t>FRANK JOHNN SLIGER MARTINEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +515,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -531,9 +530,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -733,23 +730,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,10 +774,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,7 +830,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6745AB5B-88E4-19E6-87B5-6D6BEB1D2D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE537E2E-C7CF-C194-4602-77B9C409005C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D26F4-7D5A-412A-8085-783D2751B722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668366AF-E2E4-4BFB-A6DB-06886BFF7C50}">
   <dimension ref="B2:J190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1209,7 +1206,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1254,7 +1251,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1286,12 +1283,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>67040402</v>
+        <v>67455934</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1302,17 +1299,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1339,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1362,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24933</v>
+        <v>589500</v>
       </c>
       <c r="G16" s="18">
-        <v>1700000</v>
+        <v>14737500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1376,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>589500</v>
@@ -1399,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>589500</v>
@@ -1422,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>589500</v>
@@ -1445,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>589500</v>
@@ -1468,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>589500</v>
@@ -1491,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>589500</v>
@@ -1514,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>589500</v>
@@ -1537,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>589500</v>
@@ -1560,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>589500</v>
@@ -1583,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>589500</v>
@@ -1606,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>589500</v>
@@ -1629,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>589500</v>
@@ -1652,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>589500</v>
@@ -1675,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>589500</v>
@@ -1698,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>589500</v>
@@ -1721,13 +1718,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>589500</v>
@@ -1744,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>589500</v>
@@ -1767,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>589500</v>
@@ -1790,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>589500</v>
@@ -1813,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>589500</v>
@@ -1836,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>589500</v>
@@ -1859,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>589500</v>
@@ -1882,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>589500</v>
@@ -1905,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>589500</v>
@@ -1928,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>589500</v>
@@ -1951,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>589500</v>
@@ -1974,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>589500</v>
@@ -1997,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>589500</v>
@@ -2020,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>589500</v>
@@ -2043,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>589500</v>
@@ -2066,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>589500</v>
@@ -2089,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>589500</v>
@@ -2112,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>589500</v>
@@ -2135,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>589500</v>
@@ -2158,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>589500</v>
@@ -2181,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>589500</v>
@@ -2204,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>589500</v>
@@ -2227,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>589500</v>
@@ -2250,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>589500</v>
@@ -2273,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>589500</v>
@@ -2296,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>589500</v>
@@ -2319,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>589500</v>
@@ -2342,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>589500</v>
@@ -2365,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>589500</v>
@@ -2388,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>589500</v>
@@ -2411,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>589500</v>
@@ -2434,13 +2431,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>589500</v>
@@ -2457,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>589500</v>
@@ -2480,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>589500</v>
@@ -2503,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>589500</v>
@@ -2526,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>589500</v>
@@ -2549,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>589500</v>
@@ -2572,13 +2569,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>589500</v>
@@ -2595,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F70" s="18">
-        <v>589500</v>
+        <v>24934</v>
       </c>
       <c r="G70" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2618,10 +2615,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>67</v>
@@ -2641,19 +2638,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G72" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2664,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>589500</v>
@@ -2687,19 +2684,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F74" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G74" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2710,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F75" s="18">
         <v>589500</v>
@@ -2733,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F76" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G76" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2756,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>589500</v>
+        <v>24933</v>
       </c>
       <c r="G77" s="18">
-        <v>14737500</v>
+        <v>1700000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2779,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F78" s="18">
         <v>589500</v>
@@ -2802,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F79" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G79" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2825,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F80" s="18">
         <v>589500</v>
@@ -2848,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F81" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G81" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2871,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="18">
         <v>589500</v>
@@ -2894,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F83" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G83" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2917,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F84" s="18">
         <v>589500</v>
@@ -2940,19 +2937,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F85" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G85" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2963,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F86" s="18">
         <v>589500</v>
@@ -2986,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F87" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G87" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3009,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F88" s="18">
         <v>589500</v>
@@ -3032,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F89" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G89" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3055,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F90" s="18">
         <v>589500</v>
@@ -3078,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F91" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G91" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3101,13 +3098,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F92" s="18">
         <v>589500</v>
@@ -3124,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F93" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G93" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3147,13 +3144,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F94" s="18">
         <v>589500</v>
@@ -3170,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F95" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G95" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3193,13 +3190,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F96" s="18">
         <v>589500</v>
@@ -3216,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F97" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G97" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3239,13 +3236,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F98" s="18">
         <v>589500</v>
@@ -3262,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F99" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G99" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3285,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F100" s="18">
         <v>589500</v>
@@ -3308,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F101" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G101" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3331,13 +3328,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F102" s="18">
         <v>589500</v>
@@ -3354,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F103" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G103" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3377,13 +3374,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F104" s="18">
         <v>589500</v>
@@ -3400,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F105" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G105" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3423,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F106" s="18">
         <v>589500</v>
@@ -3446,19 +3443,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F107" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G107" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3469,13 +3466,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F108" s="18">
         <v>589500</v>
@@ -3492,19 +3489,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F109" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G109" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3515,13 +3512,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F110" s="18">
         <v>589500</v>
@@ -3538,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F111" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G111" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3561,13 +3558,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F112" s="18">
         <v>589500</v>
@@ -3584,19 +3581,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F113" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G113" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3607,13 +3604,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F114" s="18">
         <v>589500</v>
@@ -3630,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F115" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G115" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3653,19 +3650,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F116" s="18">
-        <v>589500</v>
+        <v>97067</v>
       </c>
       <c r="G116" s="18">
-        <v>14737500</v>
+        <v>2600000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3676,13 +3673,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F117" s="18">
         <v>589500</v>
@@ -3699,19 +3696,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F118" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G118" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3722,13 +3719,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F119" s="18">
         <v>589500</v>
@@ -3745,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F120" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G120" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3768,13 +3765,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F121" s="18">
         <v>589500</v>
@@ -3791,19 +3788,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F122" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G122" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3814,13 +3811,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F123" s="18">
         <v>589500</v>
@@ -3837,19 +3834,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F124" s="18">
-        <v>589500</v>
+        <v>44000</v>
       </c>
       <c r="G124" s="18">
-        <v>14737500</v>
+        <v>1100000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3860,13 +3857,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F125" s="18">
         <v>589500</v>
@@ -3883,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F126" s="18">
-        <v>108984</v>
+        <v>44000</v>
       </c>
       <c r="G126" s="18">
-        <v>2724600</v>
+        <v>1100000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3906,19 +3903,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F127" s="18">
-        <v>108984</v>
+        <v>589500</v>
       </c>
       <c r="G127" s="18">
-        <v>2724600</v>
+        <v>14737500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3929,13 +3926,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F128" s="18">
         <v>44000</v>
@@ -3952,19 +3949,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="F129" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G129" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3975,13 +3972,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F130" s="18">
         <v>44000</v>
@@ -3998,19 +3995,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F131" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G131" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4021,13 +4018,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F132" s="18">
         <v>44000</v>
@@ -4044,19 +4041,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F133" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G133" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4067,13 +4064,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F134" s="18">
         <v>44000</v>
@@ -4090,19 +4087,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F135" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G135" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4113,13 +4110,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F136" s="18">
         <v>44000</v>
@@ -4136,19 +4133,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F137" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G137" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4159,13 +4156,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F138" s="18">
         <v>44000</v>
@@ -4182,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F139" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G139" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4205,13 +4202,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F140" s="18">
         <v>44000</v>
@@ -4228,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F141" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G141" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4251,13 +4248,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F142" s="18">
         <v>44000</v>
@@ -4274,19 +4271,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F143" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G143" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4297,13 +4294,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F144" s="18">
         <v>44000</v>
@@ -4320,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F145" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G145" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4343,13 +4340,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="F146" s="18">
         <v>44000</v>
@@ -4366,19 +4363,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F147" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G147" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4389,13 +4386,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F148" s="18">
         <v>44000</v>
@@ -4412,19 +4409,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F149" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G149" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4435,13 +4432,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F150" s="18">
         <v>44000</v>
@@ -4458,19 +4455,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F151" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G151" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4481,13 +4478,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F152" s="18">
         <v>44000</v>
@@ -4504,19 +4501,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F153" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G153" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4527,13 +4524,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F154" s="18">
         <v>44000</v>
@@ -4550,19 +4547,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F155" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G155" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4573,13 +4570,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F156" s="18">
         <v>44000</v>
@@ -4596,19 +4593,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F157" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G157" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4619,13 +4616,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F158" s="18">
         <v>44000</v>
@@ -4642,19 +4639,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F159" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G159" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4665,13 +4662,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F160" s="18">
         <v>44000</v>
@@ -4688,19 +4685,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F161" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G161" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4711,13 +4708,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F162" s="18">
         <v>44000</v>
@@ -4734,19 +4731,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F163" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G163" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4757,13 +4754,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F164" s="18">
         <v>44000</v>
@@ -4780,19 +4777,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F165" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G165" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4803,13 +4800,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F166" s="18">
         <v>44000</v>
@@ -4826,19 +4823,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F167" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G167" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4849,13 +4846,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F168" s="18">
         <v>44000</v>
@@ -4872,19 +4869,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F169" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G169" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4895,13 +4892,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F170" s="18">
         <v>44000</v>
@@ -4918,19 +4915,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F171" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G171" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4941,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F172" s="18">
         <v>44000</v>
@@ -4964,19 +4961,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F173" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G173" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4987,13 +4984,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F174" s="18">
         <v>44000</v>
@@ -5010,19 +5007,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F175" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G175" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5033,13 +5030,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F176" s="18">
         <v>44000</v>
@@ -5056,19 +5053,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F177" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G177" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5079,13 +5076,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F178" s="18">
         <v>44000</v>
@@ -5102,19 +5099,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D179" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F179" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G179" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5125,13 +5122,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E180" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F180" s="18">
         <v>44000</v>
@@ -5148,19 +5145,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E181" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F181" s="18">
-        <v>44000</v>
+        <v>589500</v>
       </c>
       <c r="G181" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5171,13 +5168,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D182" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E182" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F182" s="18">
         <v>44000</v>
@@ -5194,19 +5191,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F183" s="18">
-        <v>24934</v>
+        <v>589500</v>
       </c>
       <c r="G183" s="18">
-        <v>1100000</v>
+        <v>14737500</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5217,19 +5214,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D184" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E184" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="F184" s="24">
-        <v>97067</v>
+        <v>44000</v>
       </c>
       <c r="G184" s="24">
-        <v>2600000</v>
+        <v>1100000</v>
       </c>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
@@ -5237,22 +5234,22 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C189" s="32"/>
       <c r="H189" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C190" s="32"/>
       <c r="H190" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
